--- a/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st04.xlsx
+++ b/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st04.xlsx
@@ -3164,7 +3164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Operator Saren"]  What do you think "student" means?
+    <t xml:space="preserve">[name="Operator Saren"]  What do you think 'student' means?
 </t>
   </si>
   <si>
@@ -3540,7 +3540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  What do you mean "feel?" It’s just fighting. I guess it does suck to have to listen to that Doctor.
+    <t xml:space="preserve">[name="Zima"]  What do you mean 'feel?' It’s just fighting. I guess it does suck to have to listen to that Doctor.
 </t>
   </si>
   <si>
@@ -3560,7 +3560,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  I see... Still, I think it would be in your best interest to learn some "fancy talk." It could save your life.
+    <t xml:space="preserve">[name="Natalya"]  I see... Still, I think it would be in your best interest to learn some 'fancy talk.' It could save your life.
 </t>
   </si>
   <si>
@@ -3676,7 +3676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  "If I survive this, I’m going to find a lovely garden on a sunny afternoon and have a sumptuous picnic."
+    <t xml:space="preserve">[name="Natalya"]  'If I survive this, I’m going to find a lovely garden on a sunny afternoon and have a sumptuous picnic.'
 </t>
   </si>
   <si>
@@ -3688,7 +3688,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  "I wish you killed me that day."
+    <t xml:space="preserve">[name="Natalya"]  'I wish you killed me that day.'
 </t>
   </si>
   <si>
@@ -3720,7 +3720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  You care. You’re a good person, Sonya. "General Zima," Protector of the Weak, Bane of the Bullies.
+    <t xml:space="preserve">[name="Natalya"]  You care. You’re a good person, Sonya. 'General Zima,' Protector of the Weak, Bane of the Bullies.
 </t>
   </si>
   <si>
@@ -3744,7 +3744,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Yes. They, or rather, we are "fake-ass self-important shitheads."
+    <t xml:space="preserve">[name="Natalya"]  Yes. They, or rather, we are 'fake-ass self-important shitheads.'
 </t>
   </si>
   <si>
@@ -3804,7 +3804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  In short, the students who were sent to your school fell into into either the “slow” or “stupid” categories.
+    <t xml:space="preserve">[name="Natalya"]  In short, the students who were sent to your school fell into into either the 'slow' or 'stupid' categories.
 </t>
   </si>
   <si>
@@ -3852,7 +3852,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  But in any case, it’s post-hoc—— "What needed to happen to cause all that came after."
+    <t xml:space="preserve">[name="Natalya"]  But in any case, it’s post-hoc—— 'What needed to happen to cause all that came after.'
 </t>
   </si>
   <si>
@@ -3976,7 +3976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Andrey"]  She is the "Pearl of #4," the one whom Count Rostov has declared his heir.
+    <t xml:space="preserve">[name="Andrey"]  She is the 'Pearl of #4,' the one whom Count Rostov has declared his heir.
 </t>
   </si>
   <si>
@@ -4116,7 +4116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Wham!" The white-haired girl is thrown to the floor. She takes a few solid hits to the face. And as the slight trickle of crimson blood slips from her mouth, it curls into a smile.
+    <t xml:space="preserve">'Wham!' The white-haired girl is thrown to the floor. She takes a few solid hits to the face. And as the slight trickle of crimson blood slips from her mouth, it curls into a smile.
 </t>
   </si>
   <si>
@@ -4348,7 +4348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Oh, that’s just a kind of "hobby" popular in aristocratic circles. I’ve only heard rumors, actually. Don’t worry about it.
+    <t xml:space="preserve">[name="Natalya"]  Oh, that’s just a kind of 'hobby' popular in aristocratic circles. I’ve only heard rumors, actually. Don’t worry about it.
 </t>
   </si>
   <si>
@@ -4556,11 +4556,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  Ursine for "dew?"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Yes, like morning dew. Can you call me "Rosa?"
+    <t xml:space="preserve">[name="Zima"]  Ursine for 'dew?'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Yes, like morning dew. Can you call me 'Rosa?'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st04.xlsx
+++ b/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st04.xlsx
@@ -3060,27 +3060,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vanguard Operator"]  This unripe texture, this slightly-too-salty flavor, oh, I’m finally home again!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Logistics Operator"]  It was just a long mission. You don’t have to kiss the deck.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Vanguard Operator"]  Hey, you don’t know how I take to Ursus food. It really doesn’t agree with me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Vanguard Operator"]  Our canteen’s way better. I like everything here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Logistics Operator"]  The way you just put it, it doesn’t exactly sound like you like it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Vanguard Operator"]  Something doesn’t have to taste good for me to like it.
+    <t xml:space="preserve">[name="Vanguard Operator"]  This unripe texture, this slightly-too-salty flavor, oh, I'm finally home again!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Logistics Operator"]  It was just a long mission. You don't have to kiss the deck.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Vanguard Operator"]  Hey, you don't know how I take to Ursus food. It really doesn't agree with me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Vanguard Operator"]  Our canteen's way better. I like everything here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Logistics Operator"]  The way you just put it, it doesn't exactly sound like you like it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Vanguard Operator"]  Something doesn't have to taste good for me to like it.
 </t>
   </si>
   <si>
@@ -3088,11 +3088,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vanguard Operator"]  But let’s just say my palate isn’t so refined.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Logistics Operator"]  Yeah, sure. You’re totally dependent on the Rhodes Island Cafeteria.
+    <t xml:space="preserve">[name="Vanguard Operator"]  But let's just say my palate isn't so refined.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Logistics Operator"]  Yeah, sure. You're totally dependent on the Rhodes Island Cafeteria.
 </t>
   </si>
   <si>
@@ -3100,7 +3100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vanguard Operator"]  I’m pretty sure you know the deal. Resettling the refugees from Chernobog in other Ursus cities. Easy stuff, but time-consuming.
+    <t xml:space="preserve">[name="Vanguard Operator"]  I'm pretty sure you know the deal. Resettling the refugees from Chernobog in other Ursus cities. Easy stuff, but time-consuming.
 </t>
   </si>
   <si>
@@ -3108,11 +3108,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vanguard Operator"]  Yeah. There’s only so much we can do when there’s so many of them and so few of us. But a life saved is a life saved.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Vanguard Operator"]  I heard Dobermann talking about how we’re not in the best position with Ursus right now, so it’s great that Amiya and the Doctor are still willing to do these rescue operations.
+    <t xml:space="preserve">[name="Vanguard Operator"]  Yeah. There's only so much we can do when there's so many of them and so few of us. But a life saved is a life saved.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Vanguard Operator"]  I heard Dobermann talking about how we're not in the best position with Ursus right now, so it's great that Amiya and the Doctor are still willing to do these rescue operations.
 </t>
   </si>
   <si>
@@ -3120,7 +3120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Logistics Operator"]  Well, there’s another one we owe a lot of thanks too.
+    <t xml:space="preserve">[name="Logistics Operator"]  Well, there's another one we owe a lot of thanks too.
 </t>
   </si>
   <si>
@@ -3128,7 +3128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Logistics Operator"]  Right. She’s a big celebrity here now.
+    <t xml:space="preserve">[name="Logistics Operator"]  Right. She's a big celebrity here now.
 </t>
   </si>
   <si>
@@ -3156,11 +3156,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Compass"]  Hey, didn’t I hear she was just a student?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Compass"]  This is no little girl! She’s *gulp* pretty big!
+    <t xml:space="preserve">[name="Compass"]  Hey, didn't I hear she was just a student?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Compass"]  This is no little girl! She's *gulp* pretty big!
 </t>
   </si>
   <si>
@@ -3168,11 +3168,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Compass"]  I don’t know how to talk to a lady like this!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Operator Saren"]  Relax. Natalya’s real easy-going.
+    <t xml:space="preserve">[name="Compass"]  I don't know how to talk to a lady like this!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Operator Saren"]  Relax. Natalya's real easy-going.
 </t>
   </si>
   <si>
@@ -3180,7 +3180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Compass"]  That’s right. We were just talking about it.
+    <t xml:space="preserve">[name="Compass"]  That's right. We were just talking about it.
 </t>
   </si>
   <si>
@@ -3192,7 +3192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Operator Saren"]  You’re too modest. If it wasn’t for Natalya pushing the survivors along, we would’ve had a much tougher time.
+    <t xml:space="preserve">[name="Operator Saren"]  You're too modest. If it wasn't for Natalya pushing the survivors along, we would've had a much tougher time.
 </t>
   </si>
   <si>
@@ -3204,11 +3204,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Compass"]  The refugees having a good image of us makes all the difference in the world. Without you, I know things would’ve gone bad out there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Compass"]  I mean, I was a refugee too. I know how they think. But it still sucks when you’re trying to do good and people don’t trust you.
+    <t xml:space="preserve">[name="Compass"]  The refugees having a good image of us makes all the difference in the world. Without you, I know things would've gone bad out there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Compass"]  I mean, I was a refugee too. I know how they think. But it still sucks when you're trying to do good and people don't trust you.
 </t>
   </si>
   <si>
@@ -3216,11 +3216,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  And it’s not that they don’t trust Rhodes Island. It’s that they’ve suffered a Catastrophe and they don’t trust anyone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  I sensed that Rhodes Island had everyone’s best interests at heart. And having been Student Council President, I was used to this business. It’s what I’m good at.
+    <t xml:space="preserve">[name="Natalya"]  And it's not that they don't trust Rhodes Island. It's that they've suffered a Catastrophe and they don't trust anyone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  I sensed that Rhodes Island had everyone's best interests at heart. And having been Student Council President, I was used to this business. It's what I'm good at.
 </t>
   </si>
   <si>
@@ -3228,7 +3228,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Operator Saren"]  Didn’t I just say Natalya is easy-going?
+    <t xml:space="preserve">[name="Operator Saren"]  Didn't I just say Natalya is easy-going?
 </t>
   </si>
   <si>
@@ -3236,11 +3236,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Operator Saren"]  But it turns out she’s good at her job, easy to talk to, super easy to get along with. We all love Natalya.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Oh my no. Everyone’s only willing to put up with me because I’m so young.
+    <t xml:space="preserve">[name="Operator Saren"]  But it turns out she's good at her job, easy to talk to, super easy to get along with. We all love Natalya.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Oh my no. Everyone's only willing to put up with me because I'm so young.
 </t>
   </si>
   <si>
@@ -3248,19 +3248,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  I did. I passed the Logistics Department’s examination last week. I am now formally employed by Rhodes Island Pharmaceuticals.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Compass"]  Wow, that’s great news. You’re gonna love it here, trust me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  I’m already very pleased.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  As long as we’re on the subject, Mr. Saren, I’ve finished compiling the second refugee manifest, pairing names with destinations. If you wouldn’t mind sending it along after lunch.
+    <t xml:space="preserve">[name="Natalya"]  I did. I passed the Logistics Department's examination last week. I am now formally employed by Rhodes Island Pharmaceuticals.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Compass"]  Wow, that's great news. You're gonna love it here, trust me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  I'm already very pleased.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  As long as we're on the subject, Mr. Saren, I've finished compiling the second refugee manifest, pairing names with destinations. If you wouldn't mind sending it along after lunch.
 </t>
   </si>
   <si>
@@ -3276,19 +3276,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Operator Saren"]  Incredible. It’s a good thing the section chief put you on the task.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  I’m only doing my duty.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Compass"]  I guess I’d better go put in for the second resettlement op then.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Operator Saren"]  You want to head out there again? Didn’t you just get done telling me you can’t stand Ursus food?
+    <t xml:space="preserve">[name="Operator Saren"]  Incredible. It's a good thing the section chief put you on the task.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  I'm only doing my duty.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Compass"]  I guess I'd better go put in for the second resettlement op then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Operator Saren"]  You want to head out there again? Didn't you just get done telling me you can't stand Ursus food?
 </t>
   </si>
   <si>
@@ -3296,7 +3296,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Compass"]  Right, I’m about done with lunch. Help me with the tray, will you? I gotta go apply.
+    <t xml:space="preserve">[name="Compass"]  Right, I'm about done with lunch. Help me with the tray, will you? I gotta go apply.
 </t>
   </si>
   <si>
@@ -3304,7 +3304,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Operator Saren"]  Sorry about him, Natalya. That’s just how he is.
+    <t xml:space="preserve">[name="Operator Saren"]  Sorry about him, Natalya. That's just how he is.
 </t>
   </si>
   <si>
@@ -3312,7 +3312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Operator Saren"]  He does. You heard him say he was a refugee too, right? One of our teams saved him, so he’s pretty gung ho about any ops that have to do with refugees.
+    <t xml:space="preserve">[name="Operator Saren"]  He does. You heard him say he was a refugee too, right? One of our teams saved him, so he's pretty gung ho about any ops that have to do with refugees.
 </t>
   </si>
   <si>
@@ -3320,27 +3320,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Operator Saren"]  Oh, yeah. I guess we do. He was in Logistics for a bit, before transferring to the front lines. We had some time together, our personalities clicked, and so we’re friends. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Operator Saren"]  You’re with that Ursus Student Self-government Group, right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Yes. But Son... Zima and the girls are front line operators like Compass, and I’m in Logistics.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Operator Saren"]  I heard you were all found together. You’re very close too?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  ...Yes, yes we are. We were together all that time. We’re very close.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Operator Saren"]  You went through it as a group. That’s good. Err, not to say that kind of hardship is good.
+    <t xml:space="preserve">[name="Operator Saren"]  Oh, yeah. I guess we do. He was in Logistics for a bit, before transferring to the front lines. We had some time together, our personalities clicked, and so we're friends. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Operator Saren"]  You're with that Ursus Student Self-Governing Group, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Yes. But Son... Zima and the girls are front line operators like Compass, and I'm in Logistics.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Operator Saren"]  I heard you were all found together. You're very close too?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  ...Yes, yes we are. We were together all that time. We're very close.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Operator Saren"]  You went through it as a group. That's good. Err, not to say that kind of hardship is good.
 </t>
   </si>
   <si>
@@ -3392,7 +3392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  I’m fine. I shouldn’t have come looking for you. Forget I was here.
+    <t xml:space="preserve">[name="Zima"]  I'm fine. I shouldn't have come looking for you. Forget I was here.
 </t>
   </si>
   <si>
@@ -3400,11 +3400,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  Don’t touch me!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Talk to me, Sonya. We haven’t had a good talk since we came here.
+    <t xml:space="preserve">[name="Zima"]  Don't touch me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Talk to me, Sonya. We haven't had a good talk since we came here.
 </t>
   </si>
   <si>
@@ -3416,19 +3416,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  ...That’s the aristocrat in you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  You still have the strength to tease me. Looks like you’re in better shape than I thought. Your face back there was a ghastly sight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Let’s call it coffee then. Rhodes Island has some fine beans, but I can’t say the same for their tea.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  I’ve heard it has to do with the Chief Engineer. She’s quite particular about her coffee. What do you think?
+    <t xml:space="preserve">[name="Zima"]  ...That's the aristocrat in you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  You still have the strength to tease me. Looks like you're in better shape than I thought. Your face back there was a ghastly sight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Let's call it coffee then. Rhodes Island has some fine beans, but I can't say the same for their tea.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  I've heard it has to do with the Chief Engineer. She's quite particular about her coffee. What do you think?
 </t>
   </si>
   <si>
@@ -3436,11 +3436,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Heh heh. I’ve been hearing nothing but praise lately. I’d missed your venomous tongue. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  And I’m sick of you already.
+    <t xml:space="preserve">[name="Natalya"]  Heh heh. I've been hearing nothing but praise lately. I'd missed your venomous tongue. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  And I'm sick of you already.
 </t>
   </si>
   <si>
@@ -3452,7 +3452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Really? It’s black.
+    <t xml:space="preserve">[name="Natalya"]  Really? It's black.
 </t>
   </si>
   <si>
@@ -3468,7 +3468,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  It’s too bitter, isn’t it?
+    <t xml:space="preserve">[name="Natalya"]  It's too bitter, isn't it?
 </t>
   </si>
   <si>
@@ -3480,7 +3480,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  You’re the one who wouldn’t take the sugar, Sonya.
+    <t xml:space="preserve">[name="Natalya"]  You're the one who wouldn't take the sugar, Sonya.
 </t>
   </si>
   <si>
@@ -3488,15 +3488,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  And let’s not forget, it was you who came looking for me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  I already told you, that was a mistake. We’re not friends. I don’t like you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  True. We’re not friends. Nor is Anna my friend. We simply survived together.
+    <t xml:space="preserve">[name="Natalya"]  And let's not forget, it was you who came looking for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  I already told you, that was a mistake. We're not friends. I don't like you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  True. We're not friends. Nor is Anna my friend. We simply survived together.
 </t>
   </si>
   <si>
@@ -3516,15 +3516,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  For me, the best person is Anna. But you’ll do.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Mmm... Rosalind is too direct and open. While Lada is too honest and kindhearted. They won’t do.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Surely you feel the same. Which means you have only me, I’m afraid. I’m honestly not surprised you came to me.
+    <t xml:space="preserve">[name="Natalya"]  For me, the best person is Anna. But you'll do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Mmm... Rosalind is too direct and open. While Lada is too honest and kindhearted. They won't do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Surely you feel the same. Which means you have only me, I'm afraid. I'm honestly not surprised you came to me.
 </t>
   </si>
   <si>
@@ -3540,19 +3540,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  What do you mean 'feel?' It’s just fighting. I guess it does suck to have to listen to that Doctor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Your talking back to the Doctor even made it up to Logistics. You’re quite something.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  ...I’m not like you. I don’t talk fancy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  What I really want to ask is, after all we’ve been through, do you not struggle to pick up a weapon?
+    <t xml:space="preserve">[name="Zima"]  What do you mean 'feel?' It's just fighting. I guess it does suck to have to listen to that Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Your talking back to the Doctor even made it up to Logistics. You're quite something.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  ...I'm not like you. I don't talk fancy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  What I really want to ask is, after all we've been through, do you not struggle to pick up a weapon?
 </t>
   </si>
   <si>
@@ -3564,11 +3564,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  You don’t have to worry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  We may not be friends, but we’ve been through so much together. I think it’s normal to care about you, as a colleague.
+    <t xml:space="preserve">[name="Zima"]  You don't have to worry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  We may not be friends, but we've been through so much together. I think it's normal to care about you, as a colleague.
 </t>
   </si>
   <si>
@@ -3580,11 +3580,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  To be more precise, I’d say I envy you. Because you do so easily what I could never do.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Now then, Sonya, won’t you tell me what made you seek me out?
+    <t xml:space="preserve">[name="Natalya"]  To be more precise, I'd say I envy you. Because you do so easily what I could never do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Now then, Sonya, won't you tell me what made you seek me out?
 </t>
   </si>
   <si>
@@ -3600,7 +3600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Alright. Let me guess. They must be something you can’t talk to Anna about. Otherwise you wouldn’t have come to me, right?
+    <t xml:space="preserve">[name="Natalya"]  Alright. Let me guess. They must be something you can't talk to Anna about. Otherwise you wouldn't have come to me, right?
 </t>
   </si>
   <si>
@@ -3620,11 +3620,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Relax, I’m not trying to tell you what to do. I’m in no position to be giving advice to others right now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Let’s talk about something else, Sonya. Do you plan to live your life as Zima now?
+    <t xml:space="preserve">[name="Natalya"]  Relax, I'm not trying to tell you what to do. I'm in no position to be giving advice to others right now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Let's talk about something else, Sonya. Do you plan to live your life as Zima now?
 </t>
   </si>
   <si>
@@ -3636,7 +3636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  We don’t have to. The people here are very understanding. If we wanted to leave, they would send us off somewhere peaceful.
+    <t xml:space="preserve">[name="Natalya"]  We don't have to. The people here are very understanding. If we wanted to leave, they would send us off somewhere peaceful.
 </t>
   </si>
   <si>
@@ -3648,11 +3648,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  So why haven’t you left?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  I don’t know.
+    <t xml:space="preserve">[name="Zima"]  So why haven't you left?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  I don't know.
 </t>
   </si>
   <si>
@@ -3660,7 +3660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Nice weather today. Isn’t it, Sonya?
+    <t xml:space="preserve">[name="Natalya"]  Nice weather today. Isn't it, Sonya?
 </t>
   </si>
   <si>
@@ -3676,7 +3676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  'If I survive this, I’m going to find a lovely garden on a sunny afternoon and have a sumptuous picnic.'
+    <t xml:space="preserve">[name="Natalya"]  'If I survive this, I'm going to find a lovely garden on a sunny afternoon and have a sumptuous picnic.'
 </t>
   </si>
   <si>
@@ -3692,7 +3692,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Don’t hesitate. Don’t pity me. Don’t think to save me. Look down at this wretched aristocrat girl, and swing your axe.
+    <t xml:space="preserve">[name="Natalya"]  Don't hesitate. Don't pity me. Don't think to save me. Look down at this wretched aristocrat girl, and swing your axe.
 </t>
   </si>
   <si>
@@ -3700,7 +3700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  There’s still time.
+    <t xml:space="preserve">[name="Zima"]  There's still time.
 </t>
   </si>
   <si>
@@ -3708,7 +3708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  We left that place, Sonya. We’ve returned to the civilized world.
+    <t xml:space="preserve">[name="Natalya"]  We left that place, Sonya. We've returned to the civilized world.
 </t>
   </si>
   <si>
@@ -3720,19 +3720,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  You care. You’re a good person, Sonya. 'General Zima,' Protector of the Weak, Bane of the Bullies.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  Don’t make me puke.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  That’s the Sonya I heard rumors about.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  I just can’t stand those punks who get a little bit of strength and think it’s a license to bully.
+    <t xml:space="preserve">[name="Natalya"]  You care. You're a good person, Sonya. 'General Zima,' Protector of the Weak, Bane of the Bullies.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  Don't make me puke.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  That's the Sonya I heard rumors about.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  I just can't stand those punks who get a little bit of strength and think it's a license to bully.
 </t>
   </si>
   <si>
@@ -3748,7 +3748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Since you brought me back, I don’t think I’ve ever told you what happened to me before you showed up, did I?
+    <t xml:space="preserve">[name="Natalya"]  Since you brought me back, I don't think I've ever told you what happened to me before you showed up, did I?
 </t>
   </si>
   <si>
@@ -3756,7 +3756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  I’ll tell you the story sometime.
+    <t xml:space="preserve">[name="Natalya"]  I'll tell you the story sometime.
 </t>
   </si>
   <si>
@@ -3792,7 +3792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  My family was just too slow. We were trapped with some other noble families. Some houses didn’t take the threat seriously, of course.
+    <t xml:space="preserve">[name="Natalya"]  My family was just too slow. We were trapped with some other noble families. Some houses didn't take the threat seriously, of course.
 </t>
   </si>
   <si>
@@ -3800,7 +3800,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Come now, don’t give me that face. This background is important to frame the story. We’ll get to the good part.
+    <t xml:space="preserve">[name="Natalya"]  Come now, don't give me that face. This background is important to frame the story. We'll get to the good part.
 </t>
   </si>
   <si>
@@ -3812,7 +3812,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  That’s kinda weird.
+    <t xml:space="preserve">[name="Zima"]  That's kinda weird.
 </t>
   </si>
   <si>
@@ -3824,11 +3824,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  You’re all screwed in the head.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  The old me would have locked you in a two hour debate for saying that, Sonya. Because that’s how I was raised.
+    <t xml:space="preserve">[name="Zima"]  You're all screwed in the head.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  The old me would have locked you in a two hour debate for saying that, Sonya. Because that's how I was raised.
 </t>
   </si>
   <si>
@@ -3836,11 +3836,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  There is no real difference between nobles and commoners. It’s all window dressing. Scrape off the veneer and the aristocracy is truly ugly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  We talked about how if it weren’t for the first fire, if we didn’t lose that food store, things wouldn’t have gotten so bad.
+    <t xml:space="preserve">[name="Natalya"]  There is no real difference between nobles and commoners. It's all window dressing. Scrape off the veneer and the aristocracy is truly ugly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  We talked about how if it weren't for the first fire, if we didn't lose that food store, things wouldn't have gotten so bad.
 </t>
   </si>
   <si>
@@ -3852,15 +3852,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  But in any case, it’s post-hoc—— 'What needed to happen to cause all that came after.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  The funny thing is, nobles don’t need anything to happen. Put them together and they fight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Should I get into the differences between new and old nobility? The mayor’s political leanings? How many factions there are in the Chernobog aristocracy?
+    <t xml:space="preserve">[name="Natalya"]  But in any case, it's post-hoc—— 'What needed to happen to cause all that came after.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  The funny thing is, nobles don't need anything to happen. Put them together and they fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Should I get into the differences between new and old nobility? The mayor's political leanings? How many factions there are in the Chernobog aristocracy?
 </t>
   </si>
   <si>
@@ -3868,15 +3868,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  But then you won’t understand why they fight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  I guess I’ll just never understand.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  I’m not really interested in these things either. But as a daughter of the House of Rostov, I had to learn.
+    <t xml:space="preserve">[name="Natalya"]  But then you won't understand why they fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  I guess I'll just never understand.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  I'm not really interested in these things either. But as a daughter of the House of Rostov, I had to learn.
 </t>
   </si>
   <si>
@@ -3892,7 +3892,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Sounds reasonable, doesn’t it? In order to stop my classmates from fighting, I stood up and took charge.
+    <t xml:space="preserve">[name="Natalya"]  Sounds reasonable, doesn't it? In order to stop my classmates from fighting, I stood up and took charge.
 </t>
   </si>
   <si>
@@ -3900,15 +3900,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nikola"]  Don’t think you rule the roost just because your father owns a mine, Pavel!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Pavel"]  A mere baron dares to take such a tone with me. He’s lucky he doesn’t find my blade in his chest.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Pavel"]  As for you, second son of the House of Ivanov, when did it become your turn to speak? Maybe you’d like a new hole in your torso as well?
+    <t xml:space="preserve">[name="Nikola"]  Don't think you rule the roost just because your father owns a mine, Pavel!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pavel"]  A mere baron dares to take such a tone with me. He's lucky he doesn't find my blade in his chest.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pavel"]  As for you, second son of the House of Ivanov, when did it become your turn to speak? Maybe you'd like a new hole in your torso as well?
 </t>
   </si>
   <si>
@@ -3916,11 +3916,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Pavel"]  A councilor? Do you know how many councilors come to my mother’s soirees every Sunday?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Pavel"]  Oh, you don’t? Because your father doesn’t make the cut.
+    <t xml:space="preserve">[name="Pavel"]  A councilor? Do you know how many councilors come to my mother's soirees every Sunday?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pavel"]  Oh, you don't? Because your father doesn't make the cut.
 </t>
   </si>
   <si>
@@ -3936,7 +3936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  I’m serious, Pavel Nikolaevich! You are not to start another senseless quarrel!
+    <t xml:space="preserve">[name="Natalya"]  I'm serious, Pavel Nikolaevich! You are not to start another senseless quarrel!
 </t>
   </si>
   <si>
@@ -3944,7 +3944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Tatyana, please bandage Viktor’s wound.
+    <t xml:space="preserve">[name="Natalya"]  Tatyana, please bandage Viktor's wound.
 </t>
   </si>
   <si>
@@ -3952,11 +3952,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Ladies and gentlemen, we have been sealed inside this school. We know not what will happen. But I suspect that Reunion Movement won’t let us go lightly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Look at what you’ve become. It hasn’t been twelve hours and you’re arguing, fighting, even threatening to kill your fellow nobles.
+    <t xml:space="preserve">[name="Natalya"]  Ladies and gentlemen, we have been sealed inside this school. We know not what will happen. But I suspect that Reunion Movement won't let us go lightly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Look at what you've become. It hasn't been twelve hours and you're arguing, fighting, even threatening to kill your fellow nobles.
 </t>
   </si>
   <si>
@@ -3972,7 +3972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Anton"]  Y- you’re the eldest daughter of Count Rostov?!
+    <t xml:space="preserve">[name="Anton"]  Y- you're the eldest daughter of Count Rostov?!
 </t>
   </si>
   <si>
@@ -4000,7 +4000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Of course, we now know Reunion didn’t give a damn about us aristocrats.
+    <t xml:space="preserve">[name="Natalya"]  Of course, we now know Reunion didn't give a damn about us aristocrats.
 </t>
   </si>
   <si>
@@ -4024,11 +4024,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  So that’s why there were still so many noble shitstains lurking around.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Yes, I’m sure they made their own groups as well.
+    <t xml:space="preserve">[name="Zima"]  So that's why there were still so many noble shitstains lurking around.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Yes, I'm sure they made their own groups as well.
 </t>
   </si>
   <si>
@@ -4036,15 +4036,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  It’s a shame. I’m enjoying this conversation with you, but I do wish Anna was here for it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  Don’t change the subject.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Oh, I’m sorry. I do have more to say, but it’s hard to get the words out.
+    <t xml:space="preserve">[name="Natalya"]  It's a shame. I'm enjoying this conversation with you, but I do wish Anna was here for it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  Don't change the subject.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Oh, I'm sorry. I do have more to say, but it's hard to get the words out.
 </t>
   </si>
   <si>
@@ -4060,7 +4060,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Pavel"]  I will submit to the President’s leadership.
+    <t xml:space="preserve">[name="Pavel"]  I will submit to the President's leadership.
 </t>
   </si>
   <si>
@@ -4084,7 +4084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Pavel"]  Therefore, it’s time the commoners offered us a contribution, to ensure we can live in such dignity.
+    <t xml:space="preserve">[name="Pavel"]  Therefore, it's time the commoners offered us a contribution, to ensure we can live in such dignity.
 </t>
   </si>
   <si>
@@ -4100,7 +4100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  At least, at the time, that’s how I thought.
+    <t xml:space="preserve">[name="Natalya"]  At least, at the time, that's how I thought.
 </t>
   </si>
   <si>
@@ -4136,7 +4136,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  But you know, Sonya, I wouldn’t realize it if I never spent that time with you, if I never came to Rhodes Island.
+    <t xml:space="preserve">[name="Natalya"]  But you know, Sonya, I wouldn't realize it if I never spent that time with you, if I never came to Rhodes Island.
 </t>
   </si>
   <si>
@@ -4168,7 +4168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  ...You can count ‘em, huh?
+    <t xml:space="preserve">[name="Zima"]  ...You can count 'em, huh?
 </t>
   </si>
   <si>
@@ -4176,15 +4176,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Of course, I’ve considered more aristocratic methods as well: poisoned tea, a saber. I’ve even thought carefully about what calligraphic style to use in my suicide note. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Unfortunately, all of those methods would be discovered before I could pull off the deed. And I don’t want to make trouble.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  What’s your point?
+    <t xml:space="preserve">[name="Natalya"]  Of course, I've considered more aristocratic methods as well: poisoned tea, a saber. I've even thought carefully about what calligraphic style to use in my suicide note. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Unfortunately, all of those methods would be discovered before I could pull off the deed. And I don't want to make trouble.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  What's your point?
 </t>
   </si>
   <si>
@@ -4204,7 +4204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Whenever I think of Nikola’s smile, of any of their faces as they came to me, triumphant after robbing the commoners; of my cowardice as I smiled back at them, rather than reprimanding their evil.
+    <t xml:space="preserve">[name="Natalya"]  Whenever I think of Nikola's smile, of any of their faces as they came to me, triumphant after robbing the commoners; of my cowardice as I smiled back at them, rather than reprimanding their evil.
 </t>
   </si>
   <si>
@@ -4228,11 +4228,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  No, Sonya. I don’t know. I have no idea. About anything.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  I don’t even know how to tell people I don’t know! All I can do is put on that stupid facade that I have everything perfectly under control as I drag you in here!
+    <t xml:space="preserve">[name="Natalya"]  No, Sonya. I don't know. I have no idea. About anything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  I don't even know how to tell people I don't know! All I can do is put on that stupid facade that I have everything perfectly under control as I drag you in here!
 </t>
   </si>
   <si>
@@ -4240,7 +4240,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Phew, I’m sorry. I lost my composure.
+    <t xml:space="preserve">[name="Natalya"]  Phew, I'm sorry. I lost my composure.
 </t>
   </si>
   <si>
@@ -4260,7 +4260,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  You’ve got a shitload of different tea boxes over here. I can’t tell what’s what.
+    <t xml:space="preserve">[name="Zima"]  You've got a shitload of different tea boxes over here. I can't tell what's what.
 </t>
   </si>
   <si>
@@ -4272,7 +4272,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  I’ll get it, Sonya.
+    <t xml:space="preserve">[name="Natalya"]  I'll get it, Sonya.
 </t>
   </si>
   <si>
@@ -4280,7 +4280,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  It just occurred to me you probably don’t know how to make tea. Forgive the momentary lapse in judgment that pushed you to do something you’re not good at.
+    <t xml:space="preserve">[name="Natalya"]  It just occurred to me you probably don't know how to make tea. Forgive the momentary lapse in judgment that pushed you to do something you're not good at.
 </t>
   </si>
   <si>
@@ -4312,7 +4312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Then why would you let me join the Self-Government Group?
+    <t xml:space="preserve">[name="Natalya"]  Then why would you let me join the Self-Governing Group?
 </t>
   </si>
   <si>
@@ -4324,15 +4324,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  I don’t know. Can you hate me?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  I’ve never seen a shithead admit she’s a shithead before.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  So a shithead who admits she’s a shithead isn’t a shithead anymore?
+    <t xml:space="preserve">[name="Natalya"]  I don't know. Can you hate me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  I've never seen a shithead admit she's a shithead before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  So a shithead who admits she's a shithead isn't a shithead anymore?
 </t>
   </si>
   <si>
@@ -4340,7 +4340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  I’m no masochist. It’s just, how should I say? I’d like to be honest with you, um, after all that you just heard, to avoid any misunderstandings.
+    <t xml:space="preserve">[name="Natalya"]  I'm no masochist. It's just, how should I say? I'd like to be honest with you, um, after all that you just heard, to avoid any misunderstandings.
 </t>
   </si>
   <si>
@@ -4348,15 +4348,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Oh, that’s just a kind of 'hobby' popular in aristocratic circles. I’ve only heard rumors, actually. Don’t worry about it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  As long as I don’t have to kick your ass again.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  You don’t want to?
+    <t xml:space="preserve">[name="Natalya"]  Oh, that's just a kind of 'hobby' popular in aristocratic circles. I've only heard rumors, actually. Don't worry about it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  As long as I don't have to kick your ass again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  You don't want to?
 </t>
   </si>
   <si>
@@ -4364,15 +4364,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  ...You’re right back to your old self.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  Whatever, I can’t drink it anyway.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  It’s how I was raised. I must show my most refined side at all times.
+    <t xml:space="preserve">[name="Zima"]  ...You're right back to your old self.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  Whatever, I can't drink it anyway.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  It's how I was raised. I must show my most refined side at all times.
 </t>
   </si>
   <si>
@@ -4384,7 +4384,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Sorry, you can’t sweeten this kind of tea. Drink it straight, please.
+    <t xml:space="preserve">[name="Natalya"]  Sorry, you can't sweeten this kind of tea. Drink it straight, please.
 </t>
   </si>
   <si>
@@ -4392,7 +4392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  Look, Natalya, I don’t know how I’m supposed to cheer you up. And anyway I really don’t wanna.
+    <t xml:space="preserve">[name="Zima"]  Look, Natalya, I don't know how I'm supposed to cheer you up. And anyway I really don't wanna.
 </t>
   </si>
   <si>
@@ -4412,7 +4412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  All I can do is tell you what I’m thinking.
+    <t xml:space="preserve">[name="Zima"]  All I can do is tell you what I'm thinking.
 </t>
   </si>
   <si>
@@ -4424,19 +4424,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  My mom and dad died in Chernobog. There’s nothing for me to go back to. I don’t wanna go back to Ursus. So that’s that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  I think I should be able to understand your pain or whatever, but I really don’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  At first, I thought you wanted to justify yourself. Punks talk like that when they want to sucker-punch me while I’m distracted. But you seem legit sad. Why?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  Those noble shitstains wouldn’t have been any better off without you. And you’re not the one who turned them into dickheads anyway. You didn’t make all that happen.
+    <t xml:space="preserve">[name="Zima"]  My mom and dad died in Chernobog. There's nothing for me to go back to. I don't wanna go back to Ursus. So that's that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  I think I should be able to understand your pain or whatever, but I really don't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  At first, I thought you wanted to justify yourself. Punks talk like that when they want to sucker-punch me while I'm distracted. But you seem legit sad. Why?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  Those noble shitstains wouldn't have been any better off without you. And you're not the one who turned them into dickheads anyway. You didn't make all that happen.
 </t>
   </si>
   <si>
@@ -4448,7 +4448,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  Nothing, forget it. But if I was one of those nobles, I might’ve liked having a leader like you. Same way Istina chose me.
+    <t xml:space="preserve">[name="Zima"]  Nothing, forget it. But if I was one of those nobles, I might've liked having a leader like you. Same way Istina chose me.
 </t>
   </si>
   <si>
@@ -4456,27 +4456,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  I only hate you because you were my enemy before you weren’t. Also I hate nobles. That’s all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  Oh, and I have nightmares, and the nightmares make me puke, and then I can’t sleep because I’m sad.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  But doing what you can to survive isn’t bad.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  And I don’t think it was bad to let you live.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  You think you’re a shithead. But I know, without you, just relying on Anna, we never would’ve survived those next couple weeks.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  Just go for a run. Eat when you’re hungry. Sleep when you’re tired. Better than sitting around moping.
+    <t xml:space="preserve">[name="Zima"]  I only hate you because you were my enemy before you weren't. Also I hate nobles. That's all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  Oh, and I have nightmares, and the nightmares make me puke, and then I can't sleep because I'm sad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  But doing what you can to survive isn't bad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  And I don't think it was bad to let you live.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  You think you're a shithead. But I know, without you, just relying on Anna, we never would've survived those next couple weeks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  Just go for a run. Eat when you're hungry. Sleep when you're tired. Better than sitting around moping.
 </t>
   </si>
   <si>
@@ -4488,19 +4488,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  What’s making you laugh like that? Jeez, you’re tearing up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Nothing. It’s just, this is why it’s nice to chat with you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  If it were Anna and me, we’d be bawling our eyes out over each other by now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  She doesn’t like you either, don’t forget.
+    <t xml:space="preserve">[name="Zima"]  What's making you laugh like that? Jeez, you're tearing up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Nothing. It's just, this is why it's nice to chat with you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  If it were Anna and me, we'd be bawling our eyes out over each other by now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  She doesn't like you either, don't forget.
 </t>
   </si>
   <si>
@@ -4520,11 +4520,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  I’m way too lazy to care.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  And I think there’s nothing I could do to help with yours.
+    <t xml:space="preserve">[name="Zima"]  I'm way too lazy to care.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  And I think there's nothing I could do to help with yours.
 </t>
   </si>
   <si>
@@ -4532,7 +4532,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Do you think we’ll get over it, in the end?
+    <t xml:space="preserve">[name="Natalya"]  Do you think we'll get over it, in the end?
 </t>
   </si>
   <si>
@@ -4568,7 +4568,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosa"]  It’s settled. If I’m to become an operator, they’ll call me Rosa.
+    <t xml:space="preserve">[name="Rosa"]  It's settled. If I'm to become an operator, they'll call me Rosa.
 </t>
   </si>
   <si>
